--- a/總表.xlsx
+++ b/總表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent\source\LTC_data_parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5267FA-9A2F-4E04-B4CC-1A19DA69C4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7ABE99-1419-4628-91D8-5C268F359AD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E504D760-84AD-41F0-ADE1-E975334F7F14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E504D760-84AD-41F0-ADE1-E975334F7F14}"/>
   </bookViews>
   <sheets>
     <sheet name="總表" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="114">
   <si>
     <t>年度</t>
   </si>
@@ -92,18 +92,6 @@
     <t>理解能力</t>
   </si>
   <si>
-    <t>短期記憶2</t>
-  </si>
-  <si>
-    <t>短期記憶3</t>
-  </si>
-  <si>
-    <t>短期記憶4</t>
-  </si>
-  <si>
-    <t>記憶總分</t>
-  </si>
-  <si>
     <t>定義</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -389,6 +377,38 @@
   </si>
   <si>
     <t>複疼痛2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初短期記憶2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初短期記憶3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初短期記憶4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初記憶總分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複短期記憶2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複短期記憶3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複短期記憶4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>複記憶總分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -826,78 +846,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBED576F-C729-4F67-A110-B98DEF1C4540}">
-  <dimension ref="A1:DE2"/>
+  <dimension ref="A1:DI2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BQ1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CC6" sqref="CC6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6" style="1" customWidth="1"/>
     <col min="4" max="6" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="13" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="7.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="6" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="33" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="14.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="47" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="50" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="47" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="50" width="8.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="51" max="53" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="55" max="59" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="64" max="71" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="12.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="72" max="73" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="80" max="81" width="12.125" style="1" customWidth="1"/>
-    <col min="82" max="84" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="80" max="81" width="12.109375" style="1" customWidth="1"/>
+    <col min="82" max="84" width="11.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="85" max="85" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="86" max="90" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="94" max="94" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="95" max="102" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="103" max="104" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="12.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="12.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="19.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="110" max="16384" width="9" style="1"/>
+    <col min="86" max="88" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="90" max="94" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="99" max="106" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="107" max="108" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="19.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="114" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:109" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:113" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -905,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -965,276 +987,288 @@
         <v>20</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AZ1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="BB1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="BE1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="BF1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="BG1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="BH1" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="BI1" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="BK1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="BM1" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="BN1" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="BO1" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="BP1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="BQ1" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="BR1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="BS1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="BT1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="BU1" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="BV1" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="BW1" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BX1" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="BY1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="BZ1" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="CA1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AY1" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="BI1" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ1" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="BK1" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="BL1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="BM1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="BN1" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="BO1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BP1" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="BQ1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="BR1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="BS1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="BT1" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU1" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="BV1" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="BW1" s="5" t="s">
+      <c r="CB1" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="CC1" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="CD1" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="CE1" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="CF1" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="CG1" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="CH1" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="BX1" s="5" t="s">
+      <c r="CI1" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="BY1" s="5" t="s">
+      <c r="CJ1" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="BZ1" s="5" t="s">
+      <c r="CK1" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="CA1" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="CB1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="CC1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="CD1" s="7" t="s">
+      <c r="CL1" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="CE1" s="7" t="s">
+      <c r="CM1" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="CF1" s="7" t="s">
+      <c r="CN1" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="CG1" s="7" t="s">
+      <c r="CO1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="CH1" s="7" t="s">
+      <c r="CP1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="CI1" s="7" t="s">
+      <c r="CQ1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="CJ1" s="7" t="s">
+      <c r="CR1" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="CK1" s="7" t="s">
+      <c r="CS1" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="CL1" s="7" t="s">
+      <c r="CT1" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="CM1" s="7" t="s">
+      <c r="CU1" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="CN1" s="7" t="s">
+      <c r="CV1" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="CO1" s="10" t="s">
+      <c r="CW1" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="CP1" s="10" t="s">
+      <c r="CX1" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="CQ1" s="10" t="s">
+      <c r="CY1" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="CR1" s="10" t="s">
+      <c r="CZ1" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="CS1" s="10" t="s">
+      <c r="DA1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="CT1" s="10" t="s">
+      <c r="DB1" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="CU1" s="10" t="s">
+      <c r="DC1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="CV1" s="10" t="s">
+      <c r="DD1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="CW1" s="8" t="s">
+      <c r="DE1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="CX1" s="8" t="s">
+      <c r="DF1" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="CY1" s="8" t="s">
+      <c r="DG1" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="CZ1" s="8" t="s">
+      <c r="DH1" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="DA1" s="8" t="s">
+      <c r="DI1" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="DB1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:113" x14ac:dyDescent="0.3">
+      <c r="C2" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="DC1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="DD1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="DE1" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="2" spans="1:109" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>107</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="CA2" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
